--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGits\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4AE30-8D5F-49E1-86FF-EF6FE3C408DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3620CB-BF32-453E-A559-2D37F4784ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Time</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>1 English video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,9 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,125 +384,134 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="24.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>45565</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45566</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45567</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45568</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45569</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45570</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45571</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45572</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45573</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45574</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>45575</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>45576</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>45577</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>45578</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGits\minihabits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3620CB-BF32-453E-A559-2D37F4784ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270FBE4-D3C0-4ED1-9CC6-63A2D67A38CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
   <si>
     <t>Time</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 mins English video</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -446,11 +450,17 @@
       <c r="A7" s="2">
         <v>45570</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45571</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -463,18 +473,36 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45572</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45573</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -512,7 +540,105 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270FBE4-D3C0-4ED1-9CC6-63A2D67A38CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CAAD6-05D3-4AC5-94C5-C68D8AE46D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
   <si>
     <t>Time</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>2 mins English video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>play badminton</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,6 +512,15 @@
       <c r="A12" s="2">
         <v>45574</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CAAD6-05D3-4AC5-94C5-C68D8AE46D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,68 +30,397 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
   <si>
     <t>Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Read 2 pages English novel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1 Push-up/Pull-up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1 English video</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2 mins English video</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>play badminton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,9 +428,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -110,17 +683,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -204,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -378,31 +995,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7767857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7767857142857" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.7767857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>45565</v>
       </c>
@@ -430,27 +1042,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="2">
         <v>45566</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="2">
         <v>45567</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="2">
         <v>45568</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="2">
         <v>45569</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>45570</v>
       </c>
@@ -458,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>45571</v>
       </c>
@@ -466,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45572</v>
       </c>
@@ -494,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45573</v>
       </c>
@@ -508,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45574</v>
       </c>
@@ -522,27 +1134,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="2">
         <v>45575</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" s="2">
         <v>45576</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1">
       <c r="A15" s="2">
         <v>45577</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,42 +1168,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="2">
         <v>45581</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="2">
         <v>45582</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="2">
         <v>45583</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="2">
         <v>45584</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="2">
         <v>45585</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,42 +1217,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="2">
         <v>45586</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="2">
         <v>45587</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="2">
         <v>45588</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="2">
         <v>45589</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="2">
         <v>45590</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="2">
         <v>45591</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="2">
         <v>45592</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +1267,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8547E-FECD-4E3B-B67E-D4E0A770C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944608C-7C96-4EC0-A7D1-CAC345ABE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>play basketball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>play badminton</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,6 +550,12 @@
       <c r="A15" s="2">
         <v>45577</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944608C-7C96-4EC0-A7D1-CAC345ABE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF39C8E-3582-4394-A706-40757B91815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Time</t>
   </si>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>play badminton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +401,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -561,6 +565,15 @@
       <c r="A16" s="2">
         <v>45578</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF39C8E-3582-4394-A706-40757B91815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC7A03-8C29-40B7-B21F-3B3613ACFDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>rain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read 2 pages English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vimhelpfile+kickstart.nvim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>murder on …+kickstart.nvim</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,14 +412,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="24.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,16 +610,34 @@
       <c r="A19" s="2">
         <v>45580</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45581</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45582</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
@@ -629,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC7A03-8C29-40B7-B21F-3B3613ACFDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22D90E-DB55-4CB5-8E1B-A5E6FD85C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>murder on …+kickstart.nvim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read 2 section English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vimhelpfile+paper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -488,36 +496,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>45572</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45573</v>
+        <v>45572</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -531,13 +528,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45574</v>
+        <v>45573</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -545,175 +542,204 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45575</v>
+        <v>45574</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45576</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45577</v>
+        <v>45576</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45578</v>
+        <v>45577</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>45579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>45580</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>45581</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45582</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>45580</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45583</v>
+        <v>45581</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>45584</v>
+        <v>45582</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>45585</v>
+        <v>45583</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
+      <c r="A25" s="2">
+        <v>45584</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>45586</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>45587</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>45588</v>
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>45589</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>45590</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>45591</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>45592</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22D90E-DB55-4CB5-8E1B-A5E6FD85C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8B626-761A-4083-BDBA-8B4BEE3B86B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Time</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>vimhelpfile+paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +425,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -668,6 +672,12 @@
       <c r="A25" s="2">
         <v>45584</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8B626-761A-4083-BDBA-8B4BEE3B86B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33506CA-F32B-45AB-B70B-2ACD30FD71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -82,15 +82,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Read 2 section English</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>vimhelpfile+paper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read 2 pages English novel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz+paper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -662,7 +666,7 @@
         <v>45583</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -673,7 +677,7 @@
         <v>45584</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -683,6 +687,9 @@
       <c r="A26" s="2">
         <v>45585</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -692,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -704,6 +711,15 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45586</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33506CA-F32B-45AB-B70B-2ACD30FD71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18B026-B531-4941-B2ED-AC6E73139F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -736,6 +736,12 @@
       <c r="A32" s="2">
         <v>45589</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">

--- a/minihabits.xlsx
+++ b/minihabits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18B026-B531-4941-B2ED-AC6E73139F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862A60E-4F5F-4082-91D7-AF5E223E3624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>Time</t>
   </si>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>quiz+paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Push-up 1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -775,6 +783,70 @@
         <v>5</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
